--- a/data/georgia_census/imereti/wyaltubo/average_wages.xlsx
+++ b/data/georgia_census/imereti/wyaltubo/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{831DAB6A-932E-4F2F-8316-F1ED301086CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D4580C7-7483-4BD8-9A03-BAD6F23A6A74}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{528B1EDC-B57B-4FF4-928C-BCECB07389FC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F569560-3144-4726-A601-3DA901DA37E3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5E0D4A-4C71-4B89-A8DA-CABB097A4D97}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C052A27-AA2A-4316-B42D-5E3939493527}"/>
 </file>